--- a/data/Omar AnayaT3-2025.xlsx
+++ b/data/Omar AnayaT3-2025.xlsx
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>69.01833436999999</v>
+        <v>76.68703819</v>
       </c>
     </row>
     <row r="15">
